--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10031" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="852">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68565" uniqueCount="852">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31683,31 +31683,31 @@
         <v>85</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>85</v>
@@ -31716,37 +31716,37 @@
         <v>85</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>85</v>
@@ -31755,37 +31755,37 @@
         <v>85</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="AF14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="AJ14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>85</v>
@@ -32965,10 +32965,10 @@
         <v>85</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>85</v>
@@ -32977,43 +32977,43 @@
         <v>85</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>85</v>
@@ -33022,10 +33022,10 @@
         <v>85</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>85</v>
@@ -33037,22 +33037,22 @@
         <v>85</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>85</v>
@@ -33061,10 +33061,10 @@
         <v>85</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26">
@@ -33072,7 +33072,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>85</v>
@@ -33090,7 +33090,7 @@
         <v>85</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>85</v>
@@ -33123,7 +33123,7 @@
         <v>85</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>85</v>
@@ -33135,7 +33135,7 @@
         <v>85</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>85</v>
@@ -33144,7 +33144,7 @@
         <v>85</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>85</v>
@@ -33162,7 +33162,7 @@
         <v>85</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>85</v>
@@ -33174,7 +33174,7 @@
         <v>85</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>85</v>
@@ -33304,13 +33304,13 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>85</v>
@@ -33319,10 +33319,10 @@
         <v>85</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>85</v>
@@ -33355,7 +33355,7 @@
         <v>85</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>85</v>
@@ -33364,10 +33364,10 @@
         <v>85</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="X28" s="5" t="s">
         <v>85</v>
@@ -33379,10 +33379,10 @@
         <v>85</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>85</v>
@@ -33394,7 +33394,7 @@
         <v>85</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="AG28" s="5" t="s">
         <v>85</v>
@@ -33403,10 +33403,10 @@
         <v>85</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>85</v>
@@ -34580,115 +34580,115 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="40">
@@ -34696,115 +34696,115 @@
         <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -34812,115 +34812,115 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>113</v>
+        <v>334</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>113</v>
+        <v>408</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>113</v>
+        <v>432</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>113</v>
+        <v>455</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>113</v>
+        <v>503</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>113</v>
+        <v>529</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>113</v>
+        <v>552</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>113</v>
+        <v>576</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>113</v>
+        <v>596</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>113</v>
+        <v>625</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>113</v>
+        <v>649</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>113</v>
+        <v>673</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>113</v>
+        <v>699</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>113</v>
+        <v>723</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>113</v>
+        <v>747</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>113</v>
+        <v>771</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>113</v>
+        <v>795</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>113</v>
+        <v>820</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>113</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42">
